--- a/Excel Files/국제 표준 대기표.xlsx
+++ b/Excel Files/국제 표준 대기표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeoJunKu\Desktop\자바 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeoJunKu\Desktop\자바 프로젝트\SoftwareProject_2020_Spring_Semester-Turbo_Jet_Engine_Thermodynamics_Factor_Calculator\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD9C679-772A-424A-8D8E-2B8FE0AEB15F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30679A1-F55F-4382-B8DE-C269C2B181E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC3834FC-5B1E-45E2-8C20-D629CD961935}"/>
   </bookViews>
@@ -769,7 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC7C887-E7D6-4590-89DB-78192A9EDD94}">
   <dimension ref="B1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Excel Files/국제 표준 대기표.xlsx
+++ b/Excel Files/국제 표준 대기표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeoJunKu\Desktop\자바 프로젝트\SoftwareProject_2020_Spring_Semester-Turbo_Jet_Engine_Thermodynamics_Factor_Calculator\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30679A1-F55F-4382-B8DE-C269C2B181E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1210E73-C8E4-4365-9716-CBDF6EB44659}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC3834FC-5B1E-45E2-8C20-D629CD961935}"/>
   </bookViews>
